--- a/fileUpload/56010015.xlsx
+++ b/fileUpload/56010015.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BK\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="แบบฟอร์มโรงเรียน" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">แบบฟอร์มโรงเรียน!$6:$7</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -296,8 +291,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,7 +538,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -813,24 +808,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="30" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="2" customWidth="1"/>
@@ -840,7 +835,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="23.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -848,7 +843,7 @@
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="30" t="s">
         <v>88</v>
       </c>
@@ -856,12 +851,12 @@
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -870,7 +865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -879,7 +874,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="32"/>
     </row>
-    <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="33" customHeight="1">
       <c r="A6" s="33" t="s">
         <v>5</v>
       </c>
@@ -896,7 +891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="53.25" customHeight="1">
       <c r="A7" s="33"/>
       <c r="B7" s="7" t="s">
         <v>10</v>
@@ -905,7 +900,7 @@
       <c r="D7" s="36"/>
       <c r="E7" s="37"/>
     </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="8" customFormat="1" ht="28.5" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
@@ -915,85 +910,97 @@
       <c r="C8" s="28"/>
       <c r="D8" s="22">
         <f>D10+D11+D13+D14</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
-      <c r="D9" s="24"/>
+      <c r="D9" s="24">
+        <v>10</v>
+      </c>
       <c r="E9" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
-      <c r="D10" s="24"/>
+      <c r="D10" s="24">
+        <v>10</v>
+      </c>
       <c r="E10" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
-      <c r="D11" s="24"/>
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
       <c r="E11" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="24"/>
+      <c r="D12" s="24">
+        <v>0</v>
+      </c>
       <c r="E12" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="24"/>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
       <c r="E13" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="24"/>
+      <c r="D14" s="24">
+        <v>3</v>
+      </c>
       <c r="E14" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="27.75" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="23">
         <f>C15+D15</f>
-        <v>0</v>
+        <v>9678950</v>
       </c>
       <c r="C15" s="23">
         <f>C16+C20</f>
@@ -1001,19 +1008,19 @@
       </c>
       <c r="D15" s="23">
         <f>D16+D20</f>
-        <v>0</v>
+        <v>9678950</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="20.25" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="23">
         <f t="shared" ref="B16:B48" si="0">C16+D16</f>
-        <v>0</v>
+        <v>8132820</v>
       </c>
       <c r="C16" s="23">
         <f>C18+C19</f>
@@ -1021,17 +1028,17 @@
       </c>
       <c r="D16" s="23">
         <f>D18+D19</f>
-        <v>0</v>
+        <v>8132820</v>
       </c>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8132820</v>
       </c>
       <c r="C17" s="23">
         <f>C18+C19</f>
@@ -1039,25 +1046,27 @@
       </c>
       <c r="D17" s="23">
         <f>D18+D19</f>
-        <v>0</v>
+        <v>8132820</v>
       </c>
       <c r="E17" s="14"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8132820</v>
       </c>
       <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="26">
+        <v>8132820</v>
+      </c>
       <c r="E18" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" s="16" t="s">
         <v>31</v>
       </c>
@@ -1066,18 +1075,20 @@
         <v>0</v>
       </c>
       <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="D19" s="26">
+        <v>0</v>
+      </c>
       <c r="E19" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1546130</v>
       </c>
       <c r="C20" s="23">
         <f>SUM(C21:C48)</f>
@@ -1085,17 +1096,17 @@
       </c>
       <c r="D20" s="23">
         <f>SUM(D21:D48)</f>
-        <v>0</v>
+        <v>1546130</v>
       </c>
       <c r="E20" s="14"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>254387</v>
       </c>
       <c r="C21" s="23">
         <f>C22+C32</f>
@@ -1103,17 +1114,17 @@
       </c>
       <c r="D21" s="23">
         <f>D22+D32</f>
-        <v>0</v>
+        <v>254387</v>
       </c>
       <c r="E21" s="14"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>222654</v>
       </c>
       <c r="C22" s="23">
         <f>C23+C26+C29</f>
@@ -1121,11 +1132,11 @@
       </c>
       <c r="D22" s="23">
         <f>D23+D26+D29</f>
-        <v>0</v>
+        <v>222654</v>
       </c>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" s="16" t="s">
         <v>36</v>
       </c>
@@ -1145,7 +1156,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" s="25" t="s">
         <v>38</v>
       </c>
@@ -1154,12 +1165,14 @@
         <v>0</v>
       </c>
       <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="D24" s="25">
+        <v>0</v>
+      </c>
       <c r="E24" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" s="25" t="s">
         <v>40</v>
       </c>
@@ -1168,18 +1181,20 @@
         <v>0</v>
       </c>
       <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
+      <c r="D25" s="25">
+        <v>0</v>
+      </c>
       <c r="E25" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90100</v>
       </c>
       <c r="C26" s="23">
         <f>C27+C28</f>
@@ -1187,47 +1202,51 @@
       </c>
       <c r="D26" s="23">
         <f>D27+D28</f>
-        <v>0</v>
+        <v>90100</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="A27" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="D27" s="25">
+        <v>48000</v>
+      </c>
       <c r="E27" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42100</v>
       </c>
       <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
+      <c r="D28" s="25">
+        <v>42100</v>
+      </c>
       <c r="E28" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>132554</v>
       </c>
       <c r="C29" s="23">
         <f>C30+C31</f>
@@ -1235,47 +1254,51 @@
       </c>
       <c r="D29" s="23">
         <f>D30+D31</f>
-        <v>0</v>
+        <v>132554</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5">
       <c r="A30" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>101200</v>
       </c>
       <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
+      <c r="D30" s="25">
+        <v>101200</v>
+      </c>
       <c r="E30" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5">
       <c r="A31" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B31" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31354</v>
       </c>
       <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="D31" s="25">
+        <v>31354</v>
+      </c>
       <c r="E31" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5">
       <c r="A32" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B32" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31733</v>
       </c>
       <c r="C32" s="23">
         <f>C33+C34</f>
@@ -1283,27 +1306,29 @@
       </c>
       <c r="D32" s="23">
         <f>D33+D34</f>
-        <v>0</v>
+        <v>31733</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5">
       <c r="A33" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31733</v>
       </c>
       <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
+      <c r="D33" s="25">
+        <v>31733</v>
+      </c>
       <c r="E33" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5">
       <c r="A34" s="25" t="s">
         <v>40</v>
       </c>
@@ -1312,18 +1337,20 @@
         <v>0</v>
       </c>
       <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
+      <c r="D34" s="25">
+        <v>0</v>
+      </c>
       <c r="E34" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5">
       <c r="A35" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B35" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>124625</v>
       </c>
       <c r="C35" s="23">
         <f>C36+C40</f>
@@ -1331,19 +1358,19 @@
       </c>
       <c r="D35" s="23">
         <f>D36+D40</f>
-        <v>0</v>
+        <v>124625</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5">
       <c r="A36" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="C36" s="23">
         <f>C37+C38+C39</f>
@@ -1351,13 +1378,13 @@
       </c>
       <c r="D36" s="23">
         <f>D37+D38+D39</f>
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5">
       <c r="A37" s="25" t="s">
         <v>38</v>
       </c>
@@ -1366,26 +1393,30 @@
         <v>0</v>
       </c>
       <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
+      <c r="D37" s="25">
+        <v>0</v>
+      </c>
       <c r="E37" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5">
       <c r="A38" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B38" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+      <c r="D38" s="25">
+        <v>4800</v>
+      </c>
       <c r="E38" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5">
       <c r="A39" s="25" t="s">
         <v>60</v>
       </c>
@@ -1394,18 +1425,20 @@
         <v>0</v>
       </c>
       <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
+      <c r="D39" s="25">
+        <v>0</v>
+      </c>
       <c r="E39" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5">
       <c r="A40" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B40" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>119825</v>
       </c>
       <c r="C40" s="23">
         <f>C41+C42</f>
@@ -1413,47 +1446,51 @@
       </c>
       <c r="D40" s="23">
         <f>D41+D42</f>
-        <v>0</v>
+        <v>119825</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5">
       <c r="A41" s="25" t="s">
         <v>64</v>
       </c>
       <c r="B41" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92224</v>
       </c>
       <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="D41" s="25">
+        <v>92224</v>
+      </c>
       <c r="E41" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5">
       <c r="A42" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B42" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27601</v>
       </c>
       <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="D42" s="25">
+        <v>27601</v>
+      </c>
       <c r="E42" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5">
       <c r="A43" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B43" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93220</v>
       </c>
       <c r="C43" s="23">
         <f>C44+C45</f>
@@ -1461,41 +1498,45 @@
       </c>
       <c r="D43" s="23">
         <f>D44+D45</f>
-        <v>0</v>
+        <v>93220</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5">
       <c r="A44" s="25" t="s">
         <v>70</v>
       </c>
       <c r="B44" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60765</v>
       </c>
       <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="D44" s="25">
+        <v>60765</v>
+      </c>
       <c r="E44" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5">
       <c r="A45" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B45" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32455</v>
       </c>
       <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="D45" s="25">
+        <v>32455</v>
+      </c>
       <c r="E45" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5">
       <c r="A46" s="16" t="s">
         <v>74</v>
       </c>
@@ -1515,7 +1556,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5">
       <c r="A47" s="25" t="s">
         <v>76</v>
       </c>
@@ -1524,12 +1565,14 @@
         <v>0</v>
       </c>
       <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="D47" s="25">
+        <v>0</v>
+      </c>
       <c r="E47" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5">
       <c r="A48" s="25" t="s">
         <v>78</v>
       </c>
@@ -1538,12 +1581,14 @@
         <v>0</v>
       </c>
       <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="D48" s="25">
+        <v>0</v>
+      </c>
       <c r="E48" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" hidden="1">
       <c r="A49" s="17" t="s">
         <v>80</v>
       </c>
@@ -1551,7 +1596,7 @@
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" hidden="1">
       <c r="A50" s="19" t="s">
         <v>81</v>
       </c>
@@ -1559,7 +1604,7 @@
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" hidden="1">
       <c r="A51" s="19" t="s">
         <v>82</v>
       </c>
@@ -1567,7 +1612,7 @@
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" hidden="1">
       <c r="A52" s="19" t="s">
         <v>83</v>
       </c>
@@ -1575,7 +1620,7 @@
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" hidden="1">
       <c r="A53" s="19" t="s">
         <v>84</v>
       </c>
@@ -1583,7 +1628,7 @@
       <c r="C53" s="19"/>
       <c r="D53" s="20"/>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" hidden="1">
       <c r="A54" s="20" t="s">
         <v>85</v>
       </c>
@@ -1591,15 +1636,15 @@
       <c r="C54" s="20"/>
       <c r="D54" s="21"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4">
       <c r="A55" s="27"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>87</v>
       </c>
